--- a/Dataset_understanding.xlsx
+++ b/Dataset_understanding.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman2\OneDrive\Desktop\CADCS---Charging-Time-Prediction-for-Battery-Electric-Vehicles-BEVs-using-Time-Series-Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8355781F-3CA7-47D6-9F93-6D47ECF0766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5A86D-5E90-44A0-9530-61314BCA3A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="211">
   <si>
     <t xml:space="preserve">Title : </t>
   </si>
@@ -34,9 +34,6 @@
     <t>Total categorical columns of the dataset</t>
   </si>
   <si>
-    <t>Total numerical columns of the dataset</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total missing values </t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>end_time</t>
-  </si>
-  <si>
-    <t>charging_duration_min</t>
   </si>
   <si>
     <t>energy_delivered_kwh</t>
@@ -359,13 +353,366 @@
   </si>
   <si>
     <t xml:space="preserve">Task status : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of categorical columns </t>
+  </si>
+  <si>
+    <t>session_id', 'vehicle_id', 'user_id', 
+'start_time', 'end_time', 'vehicle_make', 'vehicle_model', 'user_type', 'income_bracket', 'city', 'state', 'charging_station_id', 'station_operator', 'charger_type', 'plug_type', 'day_of_week', 'season', 'festival', 'weather_condition', 'load_shedding_event', 'payment_method', 'station_congestion_level', 'cooling_system_active', 'thermal_management', 'app_reliability_rating', 'trip_purpose', 'state_ev_policy', 'charging_standard_compliance', 'safety_certification', 'session_type'</t>
+  </si>
+  <si>
+    <t>charging_duration_min', 'energy_delivered_kwh', 
+'battery_capacity_kwh', 'vehicle_age_years', 
+'battery_health_index', 'latitude', 'longitude', 'charger_power_kw', 'initial_soc_percent', 'final_soc_percent', 'soc_gained_percent', 'hour_of_day', 'month', 'ambient_temperature_c', 'humidity_percent', 'air_quality_index', 'battery_temperature_c', 'grid_frequency_hz', 'grid_reliability_index', 'power_quality_score', 'grid_load_mw', 'tariff_per_kwh_inr', 'total_cost_inr', 'subsidy_amount_inr', 'payment_success_rate', 'queue_wait_time_min', 'charger_utilization_rate', 'station_uptime_percent', 'charging_efficiency_percent', 'charging_curve_efficiency', 'session_success_rate', 'user_satisfaction_score', 'distance_to_station_km', 'range_remaining_km', 'next_destination_distance_km', 'booking_lead_time_min', 'session_rating', 'energy_efficiency_kwh_per_100km', 'week_of_year', 'day_of_year'</t>
+  </si>
+  <si>
+    <t>Name of numerical columns
+ of the dataset</t>
+  </si>
+  <si>
+    <t>Total Number of Numerical Column</t>
+  </si>
+  <si>
+    <t>Name of  columns that has only 2 values (yes/no)</t>
+  </si>
+  <si>
+    <t>is_weekend', 'is_peak_hour', 'is_month_end', 'is_quarter_end'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of (Yes/no ) features </t>
+  </si>
+  <si>
+    <t>Total size of the dataset(Rows*Columns)</t>
+  </si>
+  <si>
+    <t>Unique identifier for each charging event</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IND_BEV_100001, IND_BEV_100002, 
+IND_BEV_100003, etc. (75,000 unique values)</t>
+  </si>
+  <si>
+    <t>Helps track and identify individual charging
+ sessions for analysis and debugging</t>
+  </si>
+  <si>
+    <t>Essential for joining data, tracking user
+ behavior patterns, and ensuring 
+no duplicate records in my  ML model</t>
+  </si>
+  <si>
+    <t>Anonymous identifier for each electric 
+vehicle</t>
+  </si>
+  <si>
+    <t>TAT1234, MAH5678, OLA9876, HYU4567, etc.
+ (format: 3-letter make + 4 digits)</t>
+  </si>
+  <si>
+    <t>Links multiple charging sessions to same
+ vehicle for behavioral analysis</t>
+  </si>
+  <si>
+    <t>Enables tracking vehicle-specific charging 
+patterns, battery degradation over time, 
+and personalized charging time predictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency of every value is equal to 1 here 
+Acting as a primary key here </t>
+  </si>
+  <si>
+    <t>TAT2949 (Count = 9)</t>
+  </si>
+  <si>
+    <t>Anonymous identifier for each EV user/
+owner</t>
+  </si>
+  <si>
+    <t>USR_12345, USR_67890, USR_54321, etc. 
+(format: USR_ + 5 digits)</t>
+  </si>
+  <si>
+    <t>Connects charging behavior to individual 
+users across different vehicles and 
+sessions</t>
+  </si>
+  <si>
+    <t>USR_80771 (Count = 8)</t>
+  </si>
+  <si>
+    <t>Helps predict user preferences 
+(fast vs slow charging), typical charging 
+times, and personalized recommendations
+ for my ML model</t>
+  </si>
+  <si>
+    <t>Date and time when charging session 
+began</t>
+  </si>
+  <si>
+    <t>Numerical (datetime)</t>
+  </si>
+  <si>
+    <t>2018-01-01 06:00:00 to 
+2024-12-31 23:00:00</t>
+  </si>
+  <si>
+    <t>Critical for time series analysis, 
+seasonal patterns, and peak hour identification</t>
+  </si>
+  <si>
+    <t>Key feature for predicting charging duration based on time of day, day of week, and seasonal trends in ML time series model</t>
+  </si>
+  <si>
+    <t>Date and time when charging session ended</t>
+  </si>
+  <si>
+    <t>2018-01-01 06:05:00 to 2024-12-31
+ 23:59:00 (always after start_time)</t>
+  </si>
+  <si>
+    <t>Used to calculate actual charging duration and validate session completion</t>
+  </si>
+  <si>
+    <t>Combined with start_time, it gives you the target variable (charging_duration_min) that in ML model will predict</t>
+  </si>
+  <si>
+    <t>charging_duration_min(Target)</t>
+  </si>
+  <si>
+    <t>Total time taken to complete the charging session (in minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Numerical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0 to 360.0 minutes 
+(5 minutes to 6 hours) </t>
+  </si>
+  <si>
+    <t>This is our TARGET VARIABLE - what  ML model will going to predict</t>
+  </si>
+  <si>
+    <t>The main outcome we're trying to forecast; directly answers "How long will my EV take to charge?"</t>
+  </si>
+  <si>
+    <t>Amount of electrical energy actually transferred into the battery during charging</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5 to 80.0 kWh [Power(kw) = Energy (x) /Time (h)] : x = kwh</t>
+  </si>
+  <si>
+    <t>Shows actual energy consumption and
+ helps validate charging efficiency 
+calculations</t>
+  </si>
+  <si>
+    <t>Higher energy delivered usually means longer charging time; key predictor for your charging duration model</t>
+  </si>
+  <si>
+    <t>Brand/manufacturer of the electric vehicle</t>
+  </si>
+  <si>
+    <t>Different brands have different charging characteristics and battery technologies</t>
+  </si>
+  <si>
+    <t>Tata EVs might charge differently than Hyundai EVs due to different battery chemistry and charging curves</t>
+  </si>
+  <si>
+    <t>Tata (count = 18975)</t>
+  </si>
+  <si>
+    <t>Tata, Mahindra, Bajaj, Hero, TVS, Ola, Greaves, 
+BluSmart, Hyundai, MG, BYD, Kia, Audi, BMW
+Total : 14</t>
+  </si>
+  <si>
+    <t>Specific model name of the electric vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Categorical</t>
+  </si>
+  <si>
+    <t>Each model has unique battery size, charging speed capabilities, and efficiency</t>
+  </si>
+  <si>
+    <t>A Nexon EV (40.5 kWh) takes much longer to charge than an S1 Pro scooter (4.0 kWh)</t>
+  </si>
+  <si>
+    <t>Tigor EV (count = 6354)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nexon EV, Tigor EV, S1 Pro, Kona, ZS EV, 
+Chetak, iQube, etc. (25+ unique models)
+Exact unique model = 28 </t>
+  </si>
+  <si>
+    <t>Total energy storage capacity of the vehicle's battery pack</t>
+  </si>
+  <si>
+    <t>1.8 to 95.0 kWh</t>
+  </si>
+  <si>
+    <t>Larger batteries take longer to charge and 
+can store more energy</t>
+  </si>
+  <si>
+    <t>A 70 kWh battery takes roughly twice as long to charge as a 35 kWh battery, making this a crucial predictor for charging time.</t>
+  </si>
+  <si>
+    <t>How many years old the electric vehicle is since it was first registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 to 8 years</t>
+  </si>
+  <si>
+    <t>Older vehicles have degraded batteries that charge slower and less efficiently</t>
+  </si>
+  <si>
+    <t>A 5-year-old EV might take 15-20% longer to charge than a brand new EV due to battery aging</t>
+  </si>
+  <si>
+    <t>Measure of how healthy/good the battery is compared to when it was new</t>
+  </si>
+  <si>
+    <t>Degraded batteries charge slower and 
+hold less energy, directly affecting charging
+ time</t>
+  </si>
+  <si>
+    <t>Battery health of 0.75 means charging takes 25% longer and delivers less energy than a new battery .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Category showing how the EV is primarily used</t>
+  </si>
+  <si>
+    <t>0.65 to 1.0 
+(where 1.0 = perfect new battery)</t>
+  </si>
+  <si>
+    <t>Different user types have different 
+charging urgency and patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taxi drivers charge frequently but quickly (30-60%), while private users charge less often but fully (80-100%)</t>
+  </si>
+  <si>
+    <t>private   (count = 33789)</t>
+  </si>
+  <si>
+    <t>private, fleet, taxi, ride_share, delivery, government
+ (Total = 6 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Economic category of the EV user based on household income</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Income affects charging behavior - rich users prefer fast charging, poor users use slow charging</t>
+  </si>
+  <si>
+    <t>High income users often choose expensive DC Fast charging (30 min), while Low income users use cheap AC Slow charging (3+ hours)</t>
+  </si>
+  <si>
+    <t>Middle (count = 26313)</t>
+  </si>
+  <si>
+    <t>Low, Lower_Middle, Middle, Upper_Middle, High
+Total = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indian city where the charging session took place</t>
+  </si>
+  <si>
+    <t>Different cities have different climate, infrastructure quality, and user behavior</t>
+  </si>
+  <si>
+    <t>Delhi (extreme weather) vs Bengaluru (moderate climate) affects charging speed; Mumbai (better grid) vs Lucknow (frequent outages) affects charging reliability.</t>
+  </si>
+  <si>
+    <t>Hyderabad (count = 6414)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mumbai, Delhi, Bengaluru, Chennai, 
+Hyderabad, Pune, Ahmedabad, Kolkata, 
+Jaipur, Lucknow, Kochi, Gurgaon
+Total = 12</t>
+  </si>
+  <si>
+    <t>Indian state where the charging session occurred</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maharashtra, Delhi, Karnataka, Tamil Nadu, 
+Telangana, Gujarat, West Bengal, Rajasthan,
+ Uttar Pradesh, Kerala, Haryana</t>
+  </si>
+  <si>
+    <t>Different states have different EV policies, electricity tariffs, and grid reliability</t>
+  </si>
+  <si>
+    <t>Gujarat has cheaper electricity (₹6/kWh) vs Maharashtra (₹9/kWh), and different states have different FAME II subsidy implementations affecting user behavior</t>
+  </si>
+  <si>
+    <t>Maharashtra (count = 12502)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPS coordinate showing north-south position of the charging station</t>
+  </si>
+  <si>
+    <t>9.93 to 28.61 (covering India from
+ Kerala to Delhi)</t>
+  </si>
+  <si>
+    <t>Geographic location affects climate, which impacts battery performance and charging speed</t>
+  </si>
+  <si>
+    <t>Southern latitudes (Chennai: 13.08) have more stable temperatures year-round vs northern latitudes (Delhi: 28.61) with extreme seasonal variations affecting charging</t>
+  </si>
+  <si>
+    <t>GPS coordinate showing east-west position of the charging station</t>
+  </si>
+  <si>
+    <t>72.57 to 88.36 (covering India 
+from Gujarat to West Bengal)</t>
+  </si>
+  <si>
+    <t>Combined with latitude, provides exact location for geographic and climate analysis</t>
+  </si>
+  <si>
+    <t>Western coastal areas (Mumbai: 72.88) have high humidity affecting battery cooling vs inland areas (Delhi: 77.21) with dry heat</t>
+  </si>
+  <si>
+    <t>Unique identifier for each charging station location</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Links charging sessions to specific 
+station infrastructure and performance 
+characteristics</t>
+  </si>
+  <si>
+    <t>Some stations have better equipment, higher uptime, and faster charging speeds; helps identify station-specific charging time patterns</t>
+  </si>
+  <si>
+    <t>PUN_2336 (Count = 7)</t>
+  </si>
+  <si>
+    <t>MUM_1234, DEL_5678, BEN_9012,
+ etc. (format: City3letters_4digits)
+Total = 53974</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -413,8 +760,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +838,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -464,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,6 +894,50 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,19 +1156,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA86"/>
+  <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="97" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" customWidth="1"/>
+    <col min="1" max="1" width="48.77734375" customWidth="1"/>
+    <col min="2" max="2" width="136.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.77734375" customWidth="1"/>
     <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
     <col min="6" max="6" width="31.109375" customWidth="1"/>
     <col min="7" max="7" width="43.6640625" customWidth="1"/>
     <col min="8" max="8" width="36.33203125" customWidth="1"/>
@@ -742,12 +1179,12 @@
     <col min="13" max="13" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -757,11 +1194,13 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="17">
+        <v>75000</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -770,11 +1209,13 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="18">
+        <v>74</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -783,11 +1224,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:12" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>111</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -798,9 +1241,11 @@
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="17">
+        <v>30</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -809,11 +1254,13 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:12" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -822,11 +1269,13 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="20">
+        <v>40</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -835,11 +1284,13 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -848,11 +1299,13 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="20">
+        <v>4</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -861,699 +1314,1094 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="21">
+        <v>5550000</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17">
+        <v>73410</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1.3227027027027001</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L15" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D16" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="D17" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="D18" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="D19" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>5</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D20" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>6</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D22" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="D23" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D24" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>9</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="D25" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>11</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="D26" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>12</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>11</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="D27" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>13</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>12</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="D28" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>14</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="D29" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>15</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>14</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="D30" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>16</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>15</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="D31" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>17</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>16</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="D32" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>18</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>17</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="D33" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>19</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <v>18</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="D34" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>20</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>19</v>
-      </c>
-      <c r="C29" s="9" t="s">
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>21</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>20</v>
-      </c>
-      <c r="C30" s="9" t="s">
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>22</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>21</v>
-      </c>
-      <c r="C31" s="9" t="s">
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>23</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>22</v>
-      </c>
-      <c r="C32" s="9" t="s">
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>24</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>23</v>
-      </c>
-      <c r="C33" s="9" t="s">
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>25</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>24</v>
-      </c>
-      <c r="C34" s="9" t="s">
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>26</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
-        <v>25</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>26</v>
-      </c>
-      <c r="B36" s="8" t="s">
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>27</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="9" t="s">
+    </row>
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>28</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>27</v>
-      </c>
-      <c r="C37" s="9" t="s">
+    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>29</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <v>28</v>
-      </c>
-      <c r="C38" s="9" t="s">
+    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>30</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
-        <v>29</v>
-      </c>
-      <c r="C39" s="9" t="s">
+    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>31</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
-        <v>30</v>
-      </c>
-      <c r="C40" s="9" t="s">
+    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>32</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
-        <v>31</v>
-      </c>
-      <c r="C41" s="9" t="s">
+    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>33</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <v>32</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>33</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>34</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>35</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>36</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>37</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>38</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>51</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
+        <v>69</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>70</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>71</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>72</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>73</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
         <v>74</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C89" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="D91" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="E91" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="F91" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="H91" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="I91" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="J91" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="K91" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="L91" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="M91" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L86" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M86" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset_understanding.xlsx
+++ b/Dataset_understanding.xlsx
@@ -5,22 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooda\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8355781F-3CA7-47D6-9F93-6D47ECF0766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62A3B2B-E891-4621-931D-D5B85B67AFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="A">Sheet1!$XFD$74</definedName>
+    <definedName name="H">Sheet1!$XFD$74</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="218">
   <si>
     <t xml:space="preserve">Title : </t>
   </si>
@@ -359,6 +363,324 @@
   </si>
   <si>
     <t xml:space="preserve">Task status : </t>
+  </si>
+  <si>
+    <t>% of time charger is in use</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>0.0-100.0</t>
+  </si>
+  <si>
+    <t>Indicates load and efficiency</t>
+  </si>
+  <si>
+    <t>High rates may indicate demand</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>% of time station is operational</t>
+  </si>
+  <si>
+    <t>80.0 – 100.0</t>
+  </si>
+  <si>
+    <t>Measures station reliability</t>
+  </si>
+  <si>
+    <t>Efficiency of the charging session</t>
+  </si>
+  <si>
+    <t>70.0 – 99.9</t>
+  </si>
+  <si>
+    <t>Reflects energy loss during charging</t>
+  </si>
+  <si>
+    <t>High efficiency = less energy waste</t>
+  </si>
+  <si>
+    <t>Efficiency considering full session.</t>
+  </si>
+  <si>
+    <t>70.5 – 98.7</t>
+  </si>
+  <si>
+    <t>Indicates charging health over time</t>
+  </si>
+  <si>
+    <t>Lower curve may indicate energy drop</t>
+  </si>
+  <si>
+    <t>Whether cooling system was used</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Yes, No</t>
+  </si>
+  <si>
+    <t>Affects battery safety</t>
+  </si>
+  <si>
+    <t>Cooling reduces overheating</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Type of thermal system used</t>
+  </si>
+  <si>
+    <t>Air, Liquid, None</t>
+  </si>
+  <si>
+    <t>Maintains battery health</t>
+  </si>
+  <si>
+    <t>Improves safety and efficiency</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Rating of mobile app interface</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>Indicates user experience</t>
+  </si>
+  <si>
+    <t>Poor rating = poor satisfaction</t>
+  </si>
+  <si>
+    <t>% of successful sessions</t>
+  </si>
+  <si>
+    <t>40.0 – 100.0</t>
+  </si>
+  <si>
+    <t>Key for reliability</t>
+  </si>
+  <si>
+    <t>better station performance</t>
+  </si>
+  <si>
+    <t>Overall rating by user</t>
+  </si>
+  <si>
+    <t>1 – 10</t>
+  </si>
+  <si>
+    <t>Reflects user experience</t>
+  </si>
+  <si>
+    <t>Helps refine service</t>
+  </si>
+  <si>
+    <t>Reason for the vehicle trip</t>
+  </si>
+  <si>
+    <t>Commute, Delivery, Leisure, Other</t>
+  </si>
+  <si>
+    <t>Helps categorize user behavior</t>
+  </si>
+  <si>
+    <t>Impacts energy usage pattern</t>
+  </si>
+  <si>
+    <t>Commute</t>
+  </si>
+  <si>
+    <t>Distance to reach the station</t>
+  </si>
+  <si>
+    <t>0.0 – 45.0</t>
+  </si>
+  <si>
+    <t>Relates to accessibility</t>
+  </si>
+  <si>
+    <t>less convenient</t>
+  </si>
+  <si>
+    <t>Estimated battery range left</t>
+  </si>
+  <si>
+    <t>0.0 – 150.0</t>
+  </si>
+  <si>
+    <t>Indicates urgency</t>
+  </si>
+  <si>
+    <t>Affects user anxiety and planning</t>
+  </si>
+  <si>
+    <t>Distance to next planned stop</t>
+  </si>
+  <si>
+    <t>0.0 – 300.0</t>
+  </si>
+  <si>
+    <t>Affects charge amount needed</t>
+  </si>
+  <si>
+    <t>Impacts charging strategy</t>
+  </si>
+  <si>
+    <t>State EV policy followed</t>
+  </si>
+  <si>
+    <t>Delhi, Maharashtra, Punjab, etc.</t>
+  </si>
+  <si>
+    <t>Determines incentives &amp; rates</t>
+  </si>
+  <si>
+    <t>Region-specific insights</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>If session followed charging norms</t>
+  </si>
+  <si>
+    <t>IS_17017_Compliant, Others</t>
+  </si>
+  <si>
+    <t>Ensures compatibility</t>
+  </si>
+  <si>
+    <t>Critical for safety and success</t>
+  </si>
+  <si>
+    <t>IS_17017_Compliant</t>
+  </si>
+  <si>
+    <t>Whether safety standard is met</t>
+  </si>
+  <si>
+    <t>BIS_Certified, Others</t>
+  </si>
+  <si>
+    <t>Confirms hardware quality</t>
+  </si>
+  <si>
+    <t>Reduces risk of failures</t>
+  </si>
+  <si>
+    <t>BIS_Certified</t>
+  </si>
+  <si>
+    <t>Session nature (fast, slow, scheduled)</t>
+  </si>
+  <si>
+    <t>Fast, Normal, Scheduled</t>
+  </si>
+  <si>
+    <t>Influences duration</t>
+  </si>
+  <si>
+    <t>Related to vehicle/user preference</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Time between booking and session start</t>
+  </si>
+  <si>
+    <t>0 – 120</t>
+  </si>
+  <si>
+    <t>Reflects user planning</t>
+  </si>
+  <si>
+    <t>Affects station preparation</t>
+  </si>
+  <si>
+    <t>Rating given to session quality</t>
+  </si>
+  <si>
+    <t>1 – 5</t>
+  </si>
+  <si>
+    <t>Direct feedback signal</t>
+  </si>
+  <si>
+    <t>Influences future usage</t>
+  </si>
+  <si>
+    <t>Energy consumed per 100 km</t>
+  </si>
+  <si>
+    <t>12 – 25</t>
+  </si>
+  <si>
+    <t>Evaluates vehicle efficiency</t>
+  </si>
+  <si>
+    <t>Key for energy forecasting</t>
+  </si>
+  <si>
+    <t>Week number</t>
+  </si>
+  <si>
+    <t>1 – 52</t>
+  </si>
+  <si>
+    <t>Seasonal trends</t>
+  </si>
+  <si>
+    <t>Helps model demand patterns</t>
+  </si>
+  <si>
+    <t>Transformed (as time-series feature)</t>
+  </si>
+  <si>
+    <t>Day of the year</t>
+  </si>
+  <si>
+    <t>1-365</t>
+  </si>
+  <si>
+    <t>Temporal signal</t>
+  </si>
+  <si>
+    <t>Affects holidays, usage</t>
+  </si>
+  <si>
+    <t>Whether it's the month's end</t>
+  </si>
+  <si>
+    <t>Categorical (binary)</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>Affects user behavior</t>
+  </si>
+  <si>
+    <t>Users might charge more at month-end</t>
+  </si>
+  <si>
+    <t>Whether it's quarter end</t>
+  </si>
+  <si>
+    <t>Related to business/usage peaks</t>
+  </si>
+  <si>
+    <t>Impacts fleet/official travel</t>
   </si>
 </sst>
 </file>
@@ -464,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,6 +822,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="F42" zoomScale="101" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>39</v>
       </c>
@@ -1217,7 +1542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>40</v>
       </c>
@@ -1225,7 +1550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>41</v>
       </c>
@@ -1233,7 +1558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>42</v>
       </c>
@@ -1241,7 +1566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>43</v>
       </c>
@@ -1249,7 +1574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>44</v>
       </c>
@@ -1257,7 +1582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>45</v>
       </c>
@@ -1265,7 +1590,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>46</v>
       </c>
@@ -1273,7 +1598,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>47</v>
       </c>
@@ -1281,7 +1606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>48</v>
       </c>
@@ -1289,7 +1614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>49</v>
       </c>
@@ -1297,7 +1622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>50</v>
       </c>
@@ -1305,7 +1630,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>51</v>
       </c>
@@ -1315,157 +1640,577 @@
       <c r="C61" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" t="s">
+        <v>116</v>
+      </c>
+      <c r="K61">
+        <v>67.45</v>
+      </c>
+      <c r="L61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>52</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" t="s">
+        <v>120</v>
+      </c>
+      <c r="I62" t="s">
+        <v>120</v>
+      </c>
+      <c r="K62">
+        <v>95.76</v>
+      </c>
+      <c r="L62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>53</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63" t="s">
+        <v>122</v>
+      </c>
+      <c r="H63" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" t="s">
+        <v>124</v>
+      </c>
+      <c r="K63">
+        <v>91.42</v>
+      </c>
+      <c r="L63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>54</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" t="s">
+        <v>126</v>
+      </c>
+      <c r="H64" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" t="s">
+        <v>128</v>
+      </c>
+      <c r="K64">
+        <v>89.76</v>
+      </c>
+      <c r="L64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>55</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" t="s">
+        <v>131</v>
+      </c>
+      <c r="H65" t="s">
+        <v>132</v>
+      </c>
+      <c r="I65" t="s">
+        <v>133</v>
+      </c>
+      <c r="J65" t="s">
+        <v>134</v>
+      </c>
+      <c r="L65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>56</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" t="s">
+        <v>137</v>
+      </c>
+      <c r="I66" t="s">
+        <v>138</v>
+      </c>
+      <c r="J66" t="s">
+        <v>139</v>
+      </c>
+      <c r="L66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>57</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="L67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>58</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" t="s">
+        <v>113</v>
+      </c>
+      <c r="F68" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" t="s">
+        <v>147</v>
+      </c>
+      <c r="K68">
+        <v>94.12</v>
+      </c>
+      <c r="L68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>59</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" t="s">
+        <v>149</v>
+      </c>
+      <c r="H69" t="s">
+        <v>150</v>
+      </c>
+      <c r="I69" t="s">
+        <v>151</v>
+      </c>
+      <c r="K69">
+        <v>8.16</v>
+      </c>
+      <c r="L69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>60</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" t="s">
+        <v>154</v>
+      </c>
+      <c r="I70" t="s">
+        <v>155</v>
+      </c>
+      <c r="J70" t="s">
+        <v>156</v>
+      </c>
+      <c r="L70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>61</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" t="s">
+        <v>158</v>
+      </c>
+      <c r="H71" t="s">
+        <v>159</v>
+      </c>
+      <c r="I71" t="s">
+        <v>160</v>
+      </c>
+      <c r="K71">
+        <v>8.34</v>
+      </c>
+      <c r="L71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>62</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" t="s">
+        <v>162</v>
+      </c>
+      <c r="H72" t="s">
+        <v>163</v>
+      </c>
+      <c r="I72" t="s">
+        <v>164</v>
+      </c>
+      <c r="K72">
+        <v>38.57</v>
+      </c>
+      <c r="L72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>63</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" t="s">
+        <v>166</v>
+      </c>
+      <c r="H73" t="s">
+        <v>167</v>
+      </c>
+      <c r="I73" t="s">
+        <v>168</v>
+      </c>
+      <c r="K73">
+        <v>76.42</v>
+      </c>
+      <c r="L73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>64</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74" t="s">
+        <v>170</v>
+      </c>
+      <c r="H74" t="s">
+        <v>171</v>
+      </c>
+      <c r="I74" t="s">
+        <v>172</v>
+      </c>
+      <c r="J74" t="s">
+        <v>173</v>
+      </c>
+      <c r="L74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>65</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" t="s">
+        <v>130</v>
+      </c>
+      <c r="G75" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" t="s">
+        <v>176</v>
+      </c>
+      <c r="I75" t="s">
+        <v>177</v>
+      </c>
+      <c r="J75" t="s">
+        <v>178</v>
+      </c>
+      <c r="L75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>66</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" t="s">
+        <v>130</v>
+      </c>
+      <c r="G76" t="s">
+        <v>180</v>
+      </c>
+      <c r="H76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I76" t="s">
+        <v>182</v>
+      </c>
+      <c r="J76" t="s">
+        <v>183</v>
+      </c>
+      <c r="L76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>67</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77" t="s">
+        <v>185</v>
+      </c>
+      <c r="H77" t="s">
+        <v>186</v>
+      </c>
+      <c r="I77" t="s">
+        <v>187</v>
+      </c>
+      <c r="J77" t="s">
+        <v>188</v>
+      </c>
+      <c r="L77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>68</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" t="s">
+        <v>190</v>
+      </c>
+      <c r="H78" t="s">
+        <v>191</v>
+      </c>
+      <c r="I78" t="s">
+        <v>192</v>
+      </c>
+      <c r="K78">
+        <v>25.38</v>
+      </c>
+      <c r="L78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>69</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E79" t="s">
+        <v>113</v>
+      </c>
+      <c r="F79" t="s">
+        <v>194</v>
+      </c>
+      <c r="H79" t="s">
+        <v>195</v>
+      </c>
+      <c r="I79" t="s">
+        <v>196</v>
+      </c>
+      <c r="K79">
+        <v>4.3</v>
+      </c>
+      <c r="L79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>70</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F80" t="s">
+        <v>198</v>
+      </c>
+      <c r="H80" t="s">
+        <v>199</v>
+      </c>
+      <c r="I80" t="s">
+        <v>200</v>
+      </c>
+      <c r="K80">
+        <v>17.82</v>
+      </c>
+      <c r="L80" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -1475,6 +2220,27 @@
       <c r="C81" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="D81" t="s">
+        <v>201</v>
+      </c>
+      <c r="E81" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" t="s">
+        <v>202</v>
+      </c>
+      <c r="H81" t="s">
+        <v>203</v>
+      </c>
+      <c r="I81" t="s">
+        <v>204</v>
+      </c>
+      <c r="K81">
+        <v>26.1</v>
+      </c>
+      <c r="L81" s="14" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="82" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
@@ -1483,6 +2249,27 @@
       <c r="C82" s="9" t="s">
         <v>92</v>
       </c>
+      <c r="D82" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" t="s">
+        <v>207</v>
+      </c>
+      <c r="H82" t="s">
+        <v>208</v>
+      </c>
+      <c r="I82" t="s">
+        <v>209</v>
+      </c>
+      <c r="K82">
+        <v>182.3</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="83" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
@@ -1491,6 +2278,28 @@
       <c r="C83" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="D83" t="s">
+        <v>210</v>
+      </c>
+      <c r="E83" t="s">
+        <v>211</v>
+      </c>
+      <c r="G83" t="s">
+        <v>212</v>
+      </c>
+      <c r="H83" t="s">
+        <v>213</v>
+      </c>
+      <c r="I83" t="s">
+        <v>214</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="84" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
@@ -1498,6 +2307,27 @@
       </c>
       <c r="C84" s="9" t="s">
         <v>94</v>
+      </c>
+      <c r="D84" t="s">
+        <v>215</v>
+      </c>
+      <c r="E84" t="s">
+        <v>211</v>
+      </c>
+      <c r="G84" t="s">
+        <v>212</v>
+      </c>
+      <c r="H84" t="s">
+        <v>216</v>
+      </c>
+      <c r="I84" t="s">
+        <v>217</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Dataset_understanding.xlsx
+++ b/Dataset_understanding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman2\OneDrive\Desktop\CADCS---Charging-Time-Prediction-for-Battery-Electric-Vehicles-BEVs-using-Time-Series-Methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooda\Documents\GitHub\CADCS---Charging-Time-Prediction-for-Battery-Electric-Vehicles-BEVs-using-Time-Series-Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5A86D-5E90-44A0-9530-61314BCA3A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517D0967-6EDD-43A8-AED0-A21271B99DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="212">
   <si>
     <t xml:space="preserve">Title : </t>
   </si>
@@ -706,6 +706,9 @@
     <t>MUM_1234, DEL_5678, BEN_9012,
  etc. (format: City3letters_4digits)
 Total = 53974</t>
+  </si>
+  <si>
+    <t>% of time charger is in use</t>
   </si>
 </sst>
 </file>
@@ -857,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,9 +932,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1158,8 +1158,8 @@
   </sheetPr>
   <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="97" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="B47" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1543,7 @@
       <c r="D20" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>136</v>
       </c>
       <c r="F20" s="25" t="s">
@@ -1560,13 +1560,13 @@
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>146</v>
       </c>
       <c r="F21" s="25" t="s">
@@ -1612,7 +1612,7 @@
       <c r="D23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>120</v>
       </c>
       <c r="G23" s="25" t="s">
@@ -1638,7 +1638,7 @@
       <c r="D24" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>161</v>
       </c>
       <c r="G24" s="25" t="s">
@@ -1664,7 +1664,7 @@
       <c r="D25" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>151</v>
       </c>
       <c r="F25" s="25" t="s">
@@ -1688,7 +1688,7 @@
       <c r="D26" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>151</v>
       </c>
       <c r="F26" s="25" t="s">
@@ -1735,7 +1735,7 @@
       <c r="D28" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>120</v>
       </c>
       <c r="G28" s="25" t="s">
@@ -1787,7 +1787,7 @@
       <c r="D30" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>161</v>
       </c>
       <c r="G30" s="25" t="s">
@@ -1813,7 +1813,7 @@
       <c r="D31" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>120</v>
       </c>
       <c r="G31" s="25" t="s">
@@ -1839,7 +1839,7 @@
       <c r="D32" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>151</v>
       </c>
       <c r="F32" s="25" t="s">
@@ -1862,7 +1862,7 @@
       <c r="D33" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>151</v>
       </c>
       <c r="F33" s="25" t="s">
@@ -1898,7 +1898,7 @@
       <c r="I34" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="28" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>50</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>51</v>
       </c>
@@ -2163,8 +2163,11 @@
       <c r="C66" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>52</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>53</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>54</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>55</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>56</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>57</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>58</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>59</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>60</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>61</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>62</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>63</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>64</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>65</v>
       </c>
